--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T18:22:34+00:00</t>
+    <t>2022-05-19T18:33:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T18:33:46+00:00</t>
+    <t>2022-05-20T20:32:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T20:32:52+00:00</t>
+    <t>2022-05-20T20:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T20:57:10+00:00</t>
+    <t>2022-05-23T01:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T01:13:32+00:00</t>
+    <t>2022-05-23T10:52:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T10:52:07+00:00</t>
+    <t>2022-05-23T10:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T10:54:56+00:00</t>
+    <t>2022-05-23T11:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:06:18+00:00</t>
+    <t>2022-05-23T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:08:31+00:00</t>
+    <t>2022-05-23T11:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:30:07+00:00</t>
+    <t>2022-05-23T11:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:46:37+00:00</t>
+    <t>2022-05-23T12:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T12:36:41+00:00</t>
+    <t>2022-05-24T14:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T14:28:11+00:00</t>
+    <t>2022-05-24T16:07:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T16:07:29+00:00</t>
+    <t>2022-05-24T18:19:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T18:19:26+00:00</t>
+    <t>2022-05-24T18:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T18:58:53+00:00</t>
+    <t>2022-05-25T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T15:25:26+00:00</t>
+    <t>2022-05-25T17:10:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T17:10:47+00:00</t>
+    <t>2022-05-25T17:52:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T17:52:37+00:00</t>
+    <t>2022-05-25T18:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T18:55:20+00:00</t>
+    <t>2022-05-25T19:52:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T19:52:35+00:00</t>
+    <t>2022-05-25T20:34:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T20:34:56+00:00</t>
+    <t>2022-06-09T20:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-09T20:33:24+00:00</t>
+    <t>2022-06-10T16:46:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T16:46:34+00:00</t>
+    <t>2022-06-10T18:20:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T18:20:06+00:00</t>
+    <t>2022-06-10T20:09:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T20:09:36+00:00</t>
+    <t>2022-06-10T20:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T20:31:51+00:00</t>
+    <t>2022-06-28T15:12:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -475,14 +475,41 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x]</t>
+    <t>displayOptions</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>unit : Contains the value entered by the end user for this specific setting</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>unitValue</t>
+  </si>
+  <si>
+    <t>value : Contains the value entered by the end user for this specific setting</t>
   </si>
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Extension.extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
   </si>
 </sst>
 </file>
@@ -795,7 +822,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ86"/>
+  <dimension ref="A1:AJ101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -804,8 +831,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.25390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -9120,18 +9147,20 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>74</v>
@@ -9143,24 +9172,22 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>74</v>
@@ -9202,27 +9229,27 @@
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9233,7 +9260,7 @@
         <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>74</v>
@@ -9245,13 +9272,13 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -9302,7 +9329,7 @@
         <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -9314,15 +9341,15 @@
         <v>74</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9333,7 +9360,7 @@
         <v>80</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>74</v>
@@ -9345,24 +9372,22 @@
         <v>74</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>74</v>
@@ -9392,50 +9417,52 @@
         <v>74</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>74</v>
@@ -9447,13 +9474,13 @@
         <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K86" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="L86" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -9504,21 +9531,1533 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE90" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AF86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI86" t="s" s="2">
+      <c r="AF90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI90" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AJ86" t="s" s="2">
+      <c r="AJ90" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
         <v>110</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Extension : Object Rendering Settings</t>
+    <t>Questionnaire|Questionnaire.item - Extension : Object Rendering Settings</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T15:12:49+00:00</t>
+    <t>2022-07-04T18:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T18:23:06+00:00</t>
+    <t>2022-07-04T18:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire|Questionnaire.item - Extension : Object Rendering Settings</t>
+    <t>Extension : Questionnaire|Questionnaire.item - Object Rendering Settings</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T18:28:37+00:00</t>
+    <t>2022-07-04T20:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T20:25:49+00:00</t>
+    <t>2022-07-27T15:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -832,41 +832,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.3046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.30859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T15:29:27+00:00</t>
+    <t>2022-07-27T16:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:10:03+00:00</t>
+    <t>2022-07-27T16:26:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering.xlsx
+++ b/branches/master/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:26:41+00:00</t>
+    <t>2022-08-01T20:41:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
